--- a/data/example/example.master.xlsx
+++ b/data/example/example.master.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t xml:space="preserve">patient</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">chr4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt0_Bcells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrY</t>
   </si>
 </sst>
 </file>
@@ -76,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,13 +175,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
   </cols>
@@ -350,6 +357,30 @@
       <c r="G7" s="0" t="n">
         <f aca="false">(F7/(F7+E7))</f>
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">(F8/(F8+E8))</f>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
